--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liu/Desktop/KBQA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5626B74-D4BF-E94E-9512-A11B0DB8BF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A1C049-6458-AF43-A801-48B5D92C9B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="1840" windowWidth="28100" windowHeight="17360" xr2:uid="{4D5196F1-ED0C-A74A-A17E-F8E0DA8C9EB1}"/>
+    <workbookView xWindow="5140" yWindow="1840" windowWidth="32660" windowHeight="17360" xr2:uid="{4D5196F1-ED0C-A74A-A17E-F8E0DA8C9EB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -715,7 +715,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
